--- a/output/bfm_summary/bfm_norep_pre/merging_points_wages.xlsx
+++ b/output/bfm_summary/bfm_norep_pre/merging_points_wages.xlsx
@@ -19,616 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>big_t</t>
-  </si>
-  <si>
-    <t>small_t</t>
-  </si>
-  <si>
-    <t>antitonic</t>
-  </si>
-  <si>
-    <t>extrap</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>mpoint</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>p</t>
   </si>
@@ -825,25 +216,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>209</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -1825,25 +1216,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -2909,25 +2300,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -3993,25 +3384,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -5077,25 +4468,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -6203,25 +5594,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -7329,25 +6720,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>251</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">

--- a/output/bfm_summary/bfm_norep_pre/merging_points_wages.xlsx
+++ b/output/bfm_summary/bfm_norep_pre/merging_points_wages.xlsx
@@ -19,7 +19,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
   <si>
     <t>p</t>
   </si>
@@ -216,25 +363,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1216,25 +1363,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -2300,25 +2447,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -3384,25 +3531,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -4468,25 +4615,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
@@ -5594,25 +5741,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -6720,25 +6867,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">

--- a/output/bfm_summary/bfm_norep_pre/merging_points_wages.xlsx
+++ b/output/bfm_summary/bfm_norep_pre/merging_points_wages.xlsx
@@ -19,7 +19,301 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
   <si>
     <t>p</t>
   </si>
@@ -363,25 +657,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
@@ -1363,25 +1657,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
@@ -2447,25 +2741,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
@@ -3531,25 +3825,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
@@ -4615,25 +4909,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -5741,25 +6035,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -6867,25 +7161,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
